--- a/transport_analysis/data/traffic_camera_london.xlsx
+++ b/transport_analysis/data/traffic_camera_london.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajwinderbhatoe/Documents/Programming/CodeFirstGirls/big_data_challenge/Covid19-Environmental-and-Economic-Analysis/transport_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08276E67-9EC6-764F-BE54-14EFAF2D45DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE516191-6703-CE40-A768-4E6ACD871E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C097D2AC-F56B-324D-984B-AD6B8588527E}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/transport_analysis/data/traffic_camera_london.xlsx
+++ b/transport_analysis/data/traffic_camera_london.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajwinderbhatoe/Documents/Programming/CodeFirstGirls/big_data_challenge/Covid19-Environmental-and-Economic-Analysis/transport_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE516191-6703-CE40-A768-4E6ACD871E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83695FB3-F941-8147-82DD-705E47DBE93E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C097D2AC-F56B-324D-984B-AD6B8588527E}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16640" xr2:uid="{C097D2AC-F56B-324D-984B-AD6B8588527E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39571109-2642-CC43-AAAC-28D082A570E6}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
